--- a/RACK.xlsx
+++ b/RACK.xlsx
@@ -394,7 +394,7 @@
     <t>SR 4 D4</t>
   </si>
   <si>
-    <t>SR 5 </t>
+    <t>SR 5</t>
   </si>
   <si>
     <t>SR 6</t>
@@ -572,14 +572,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A103" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1:C119"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A100" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C117" activeCellId="0" pane="topLeft" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -1704,10 +1704,20 @@
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="103"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="103">
+      <c r="A103" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="104">
       <c r="A104" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>134</v>
@@ -1718,7 +1728,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="105">
       <c r="A105" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>134</v>
@@ -1729,7 +1739,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="106">
       <c r="A106" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>134</v>
@@ -1740,7 +1750,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="107">
       <c r="A107" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>134</v>
@@ -1751,19 +1761,29 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="108">
       <c r="A108" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="109"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="109">
+      <c r="A109" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="110">
       <c r="A110" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>140</v>
@@ -1774,10 +1794,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="111">
       <c r="A111" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>141</v>
@@ -1785,7 +1805,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="112">
       <c r="A112" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>140</v>
@@ -1796,10 +1816,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="113">
       <c r="A113" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>141</v>
@@ -1807,10 +1827,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="114">
       <c r="A114" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>141</v>
@@ -1818,7 +1838,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="115">
       <c r="A115" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>148</v>
@@ -1829,45 +1849,23 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="116">
       <c r="A116" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>141</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="117">
       <c r="A117" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>148</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
-      <c r="A118" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
-      <c r="A119" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C119" s="0" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1890,11 +1888,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1:C119"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1915,11 +1913,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1:C119"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
